--- a/Design/DevelopPlan.xlsx
+++ b/Design/DevelopPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudaryuto/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masudaryuto/Documents/GitHub/FanAnimation/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48809CA1-31C7-5448-9B1B-80B51A6BBB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10695E6-795E-B84E-9674-D236BE7527D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16520" yWindow="500" windowWidth="12280" windowHeight="16480" xr2:uid="{79E4C9E2-1A8B-3143-84ED-5646F73D5F0C}"/>
+    <workbookView xWindow="4100" yWindow="740" windowWidth="12280" windowHeight="16380" xr2:uid="{79E4C9E2-1A8B-3143-84ED-5646F73D5F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>回転機能</t>
     <rPh sb="0" eb="4">
@@ -152,19 +152,6 @@
 強中弱機能</t>
     <rPh sb="0" eb="4">
       <t>カイテn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>音を鳴らす機能</t>
-    <rPh sb="0" eb="1">
-      <t>オトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナラス</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -560,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAB7EBC-0E33-414D-807C-767E87CF4BC5}">
-  <dimension ref="A3:D9"/>
+  <dimension ref="B6:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -571,103 +558,104 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="2:5">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C7" s="1">
         <v>0.5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="2:5">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="2:5" ht="42">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="2:5">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C11" s="1">
         <v>0.5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42">
-      <c r="A9" s="1" t="s">
+    <row r="12" spans="2:5" ht="42">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
